--- a/data/stat probs/tyrese haliburton stat probs - condition.xlsx
+++ b/data/stat probs/tyrese haliburton stat probs - condition.xlsx
@@ -39,12 +39,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chi 2023 full" sheetId="30" state="visible" r:id="rId30"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 full" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 full" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 full" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 full" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 full" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="38" state="visible" r:id="rId38"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 regular" sheetId="39" state="visible" r:id="rId39"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 full" sheetId="40" state="visible" r:id="rId40"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="41" state="visible" r:id="rId41"/>
@@ -581,28 +581,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -2055,28 +2055,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2761,28 +2761,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4107,28 +4107,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -5453,28 +5453,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6607,28 +6607,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -7761,28 +7761,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8787,28 +8787,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -9813,28 +9813,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10551,28 +10551,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -11289,28 +11289,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12315,28 +12315,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -13789,28 +13789,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -14815,28 +14815,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15841,28 +15841,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -16867,28 +16867,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -18021,28 +18021,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19175,28 +19175,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20521,28 +20521,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21867,28 +21867,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23341,28 +23341,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24815,28 +24815,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -25841,28 +25841,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -27187,28 +27187,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28213,28 +28213,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29239,28 +29239,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -30202,7 +30202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30265,28 +30265,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -30335,10 +30335,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -30367,10 +30367,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -30379,10 +30379,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -30399,10 +30399,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -30411,10 +30411,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -30431,10 +30431,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -30443,10 +30443,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -30463,10 +30463,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
@@ -30475,10 +30475,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -30495,16 +30495,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -30533,10 +30533,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -30565,10 +30565,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -30597,10 +30597,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -30629,10 +30629,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -30661,10 +30661,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -30693,10 +30693,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -30777,10 +30777,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -30809,10 +30809,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -30841,10 +30841,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -30873,10 +30873,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -30905,10 +30905,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -30937,10 +30937,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -30969,10 +30969,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -31001,10 +31001,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -31033,10 +31033,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -31065,10 +31065,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -31097,10 +31097,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -31129,10 +31129,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -31161,10 +31161,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D30" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -31193,10 +31193,10 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -31214,6 +31214,102 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>100</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>100</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>100</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>100</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>100</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>100</v>
       </c>
     </row>
@@ -31228,7 +31324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31291,28 +31387,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31361,10 +31457,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -31373,10 +31469,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -31393,10 +31489,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -31405,10 +31501,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -31425,10 +31521,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -31437,10 +31533,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -31457,10 +31553,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -31469,10 +31565,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -31489,10 +31585,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
@@ -31501,10 +31597,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -31521,16 +31617,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -31559,10 +31655,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -31591,10 +31687,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -31623,10 +31719,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -31655,10 +31751,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -31687,10 +31783,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -31719,10 +31815,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -31803,10 +31899,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -31835,10 +31931,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -31867,10 +31963,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -31899,10 +31995,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -31931,10 +32027,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -31963,10 +32059,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -31995,10 +32091,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -32027,10 +32123,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -32059,10 +32155,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -32091,10 +32187,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -32123,10 +32219,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -32155,10 +32251,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -32187,10 +32283,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D30" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -32219,10 +32315,10 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -32240,6 +32336,102 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>100</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>100</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>100</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>100</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>100</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>100</v>
       </c>
     </row>
@@ -32317,28 +32509,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32431,10 +32623,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -32489,10 +32681,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -32521,10 +32713,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -32547,10 +32739,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -32797,10 +32989,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -32829,10 +33021,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -32861,10 +33053,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -32893,10 +33085,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -32925,10 +33117,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -32957,10 +33149,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -32989,10 +33181,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -33021,10 +33213,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -33053,10 +33245,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -33085,10 +33277,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -33117,10 +33309,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -33149,10 +33341,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -33181,10 +33373,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -33213,10 +33405,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -33245,10 +33437,10 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -33277,10 +33469,10 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -33309,10 +33501,10 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -33341,10 +33533,10 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -33439,28 +33631,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33553,10 +33745,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -33611,10 +33803,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -33643,10 +33835,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -33669,10 +33861,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -33919,10 +34111,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -33951,10 +34143,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -33983,10 +34175,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -34015,10 +34207,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -34047,10 +34239,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -34079,10 +34271,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -34111,10 +34303,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -34143,10 +34335,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -34175,10 +34367,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -34207,10 +34399,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -34239,10 +34431,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -34271,10 +34463,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -34303,10 +34495,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -34335,10 +34527,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -34367,10 +34559,10 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -34399,10 +34591,10 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -34431,10 +34623,10 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -34463,10 +34655,10 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -34561,28 +34753,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34695,10 +34887,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -34727,16 +34919,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -34759,16 +34951,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -34797,10 +34989,10 @@
         <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -35041,10 +35233,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -35073,10 +35265,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -35105,10 +35297,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -35137,10 +35329,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -35169,10 +35361,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -35201,10 +35393,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -35233,10 +35425,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -35265,10 +35457,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -35297,10 +35489,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -35683,28 +35875,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35817,10 +36009,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -35849,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -35881,16 +36073,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -35919,10 +36111,10 @@
         <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -36163,10 +36355,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -36195,10 +36387,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -36227,10 +36419,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -36259,10 +36451,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36291,10 +36483,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -36323,10 +36515,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -36355,10 +36547,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -36387,10 +36579,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -36419,10 +36611,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -36805,28 +36997,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37607,28 +37799,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -38953,28 +39145,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39755,28 +39947,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
@@ -41229,28 +41421,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
@@ -42703,28 +42895,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
@@ -43921,28 +44113,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
@@ -45139,28 +45331,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -45941,28 +46133,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -46743,28 +46935,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -47353,28 +47545,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -47963,28 +48155,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -49021,28 +49213,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -50495,28 +50687,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -51553,28 +51745,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -52483,28 +52675,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -53413,28 +53605,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -54087,28 +54279,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -54761,28 +54953,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -56235,28 +56427,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -57709,28 +57901,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -58735,28 +58927,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -59761,28 +59953,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -60179,28 +60371,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -61653,28 +61845,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -62071,28 +62263,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -63001,28 +63193,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -63931,28 +64123,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -64861,28 +65053,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -65791,28 +65983,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -66369,28 +66561,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -66947,28 +67139,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -67525,28 +67717,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -68103,28 +68295,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -68905,28 +69097,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -69739,28 +69931,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -70541,28 +70733,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -71119,28 +71311,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -71697,28 +71889,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -72307,28 +72499,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -72917,28 +73109,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -73783,28 +73975,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -74649,28 +74841,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -75387,28 +75579,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -76125,28 +76317,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -77151,28 +77343,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -77985,28 +78177,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -79011,28 +79203,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -80229,28 +80421,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -81447,28 +81639,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -82377,28 +82569,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -83307,28 +83499,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -83885,28 +84077,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -84463,28 +84655,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -85233,28 +85425,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -86003,28 +86195,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -86869,28 +87061,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -87575,28 +87767,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -88441,28 +88633,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -89403,28 +89595,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -90365,28 +90557,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -91295,28 +91487,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
